--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="generation_only" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2577,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>

--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,234 +1087,234 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B2">
-        <v>5031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B3">
-        <v>5032</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B4">
-        <v>7031</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B5">
-        <v>6231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B6">
-        <v>1131</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B7">
-        <v>8033</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>4131</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B9">
-        <v>7032</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B10">
-        <v>4039</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B11">
-        <v>6533</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B12">
-        <v>1032</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B13">
-        <v>3531</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B14">
-        <v>1333</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B15">
-        <v>4132</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B16">
-        <v>2630</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B17">
-        <v>1331</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B18">
-        <v>3631</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B19">
-        <v>2130</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B20">
-        <v>4035</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21">
-        <v>4031</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B22">
-        <v>3433</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B23">
-        <v>2438</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B24">
-        <v>2030</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B25">
-        <v>6132</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B26">
-        <v>3835</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B27">
-        <v>2233</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B28">
-        <v>6235</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B29">
-        <v>6335</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B30">
-        <v>1232</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1327,109 +1327,112 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B32">
-        <v>2631</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B33">
-        <v>2637</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="B34">
-        <v>1431</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B35">
-        <v>3234</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="B36">
-        <v>3135</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B37">
-        <v>8034</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B38">
-        <v>3931</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B39">
-        <v>3133</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B40">
-        <v>1032</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="B41">
-        <v>3931</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="B42">
-        <v>3933</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B43">
-        <v>6433</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B44">
-        <v>4232</v>
+        <v>8034</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B44">
+    <sortCondition ref="B2:B44"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1438,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1458,674 +1461,674 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B2">
-        <v>2600</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>4104</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B4">
-        <v>4103</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>3907</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>6510</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>6501</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B8">
-        <v>4009</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B9">
-        <v>6104</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>6103</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>6301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B12">
-        <v>6303</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="B13">
-        <v>3908</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>3201</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>5003</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B16">
-        <v>6502</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>5001</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>5002</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B19">
-        <v>2608</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B20">
-        <v>4007</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="B21">
-        <v>1102</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B22">
-        <v>3909</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>7001</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B24">
-        <v>6203</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>6201</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B26">
-        <v>1101</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B27">
-        <v>3910</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="B28">
-        <v>3911</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="B29">
-        <v>8003</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B30">
-        <v>4101</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>7002</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B32">
-        <v>2400</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>3801</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>2406</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>3101</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B36">
-        <v>6503</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="B37">
-        <v>1003</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B38">
-        <v>1002</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>3501</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="B40">
-        <v>6204</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="B41">
-        <v>6202</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B42">
-        <v>3804</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B43">
-        <v>2609</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="B44">
-        <v>3912</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B45">
-        <v>3913</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="B46">
-        <v>6404</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B47">
-        <v>3401</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B48">
-        <v>4004</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B49">
-        <v>1303</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B50">
-        <v>1302</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B51">
-        <v>4102</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B52">
-        <v>2610</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="B53">
-        <v>3601</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B54">
-        <v>3914</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B55">
-        <v>2100</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="B56">
-        <v>2604</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B57">
-        <v>3302</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>4005</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B59">
-        <v>3915</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B60">
-        <v>6302</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B61">
-        <v>2407</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B62">
-        <v>3916</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>3917</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="B64">
-        <v>2401</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="B65">
-        <v>4008</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B66">
-        <v>3104</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B67">
-        <v>3102</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B68">
-        <v>3403</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B69">
-        <v>1301</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B70">
-        <v>4204</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>2408</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B72">
-        <v>3303</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B73">
-        <v>2000</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="B74">
-        <v>6102</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B75">
-        <v>3805</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B76">
-        <v>2202</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B77">
-        <v>2409</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>2402</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B79">
-        <v>2203</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B80">
-        <v>1201</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B81">
-        <v>6504</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B82">
-        <v>6205</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B83">
-        <v>3304</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B84">
-        <v>3202</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B85">
-        <v>3806</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2138,437 +2141,440 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>3902</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B88">
-        <v>6305</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B89">
-        <v>1202</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B90">
-        <v>3203</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B91">
-        <v>4201</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>240</v>
       </c>
       <c r="B92">
-        <v>2611</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>3919</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B94">
-        <v>1401</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B95">
-        <v>3404</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B96">
-        <v>2410</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="B97">
-        <v>6505</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B98">
-        <v>3204</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B99">
-        <v>3105</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B100">
-        <v>3305</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B101">
-        <v>2612</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B102">
-        <v>3926</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B103">
-        <v>3920</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B104">
-        <v>2613</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B105">
-        <v>8004</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B106">
-        <v>3921</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B107">
-        <v>2503</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B108">
-        <v>1004</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B109">
-        <v>3103</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="B110">
-        <v>2502</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B111">
-        <v>6507</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B112">
-        <v>3205</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B113">
-        <v>6508</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="B114">
-        <v>2621</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="B115">
-        <v>2614</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="B116">
-        <v>2615</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="B117">
-        <v>2602</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B118">
-        <v>2616</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B119">
-        <v>2617</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="B120">
-        <v>2618</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B121">
-        <v>6402</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="B122">
-        <v>4002</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B123">
-        <v>3701</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B124">
-        <v>2405</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B125">
-        <v>2619</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="B126">
-        <v>3922</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B127">
-        <v>6509</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B128">
-        <v>3923</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="B129">
-        <v>3903</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B130">
-        <v>8005</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="B131">
-        <v>6401</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="B132">
-        <v>3924</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B133">
-        <v>2620</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B134">
-        <v>2403</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B135">
-        <v>6403</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="B136">
-        <v>2411</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="B137">
-        <v>4202</v>
+        <v>7002</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="B138">
-        <v>1402</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B139">
-        <v>4203</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B140">
-        <v>3405</v>
+        <v>8005</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B140">
+    <sortCondition ref="B2:B140"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="generation_only" sheetId="1" r:id="rId1"/>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,234 +1087,234 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B2">
-        <v>1032</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="B3">
-        <v>1032</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4">
-        <v>1131</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B5">
-        <v>1232</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B6">
-        <v>1331</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B7">
-        <v>1333</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B8">
-        <v>1431</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B9">
-        <v>2030</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B10">
-        <v>2130</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B11">
-        <v>2233</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B12">
-        <v>2438</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B13">
-        <v>2630</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B14">
-        <v>2631</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B15">
-        <v>2637</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B16">
-        <v>3133</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B17">
-        <v>3135</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B18">
-        <v>3234</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19">
-        <v>3433</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B20">
-        <v>3531</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21">
-        <v>3631</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B22">
-        <v>3835</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B23">
-        <v>3931</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B24">
-        <v>3931</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B25">
-        <v>3933</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B26">
-        <v>4031</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B27">
-        <v>4035</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B28">
-        <v>4039</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B29">
-        <v>4131</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="B30">
-        <v>4132</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1327,111 +1327,111 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B32">
-        <v>4232</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="B33">
-        <v>5031</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B34">
-        <v>5032</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B35">
-        <v>6132</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B36">
-        <v>6231</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B37">
-        <v>6235</v>
+        <v>8034</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B38">
-        <v>6335</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B39">
-        <v>6433</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B40">
-        <v>6533</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B41">
-        <v>7031</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B42">
-        <v>7032</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="B43">
-        <v>8033</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B44">
-        <v>8034</v>
+        <v>4232</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B44">
-    <sortCondition ref="B2:B44"/>
+    <sortCondition ref="A2:A44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1461,674 +1461,674 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1002</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1003</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1004</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1101</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1102</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1201</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1202</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1301</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1302</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1303</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1401</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1402</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>2000</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>2100</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>2202</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>2203</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>2400</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="B19">
-        <v>2401</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>2402</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>2403</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2405</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>2406</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>2407</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>2408</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>2409</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>2410</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>2411</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>2502</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>2503</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>2600</v>
+        <v>7002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>2602</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>2604</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>2608</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>2609</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>2610</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>2611</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>2612</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>2613</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>2614</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>2615</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>2616</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>2617</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>2618</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>2619</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>2620</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>2621</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>3101</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>3102</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>3103</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>3104</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>3105</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>3201</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>3202</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>3203</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>3204</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>3205</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>3302</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>3303</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>3304</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>3305</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>3401</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>3403</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>3404</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>3405</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>3501</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>3601</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>3701</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>3801</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>3804</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>3805</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>3806</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>3902</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>3903</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>3907</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>3908</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>3909</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>3910</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>3911</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>3912</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>3913</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>3914</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>3915</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>3916</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>3917</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -2141,439 +2141,439 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>3919</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>3920</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>3921</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>3922</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>3923</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>3924</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>3926</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>4002</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>4004</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>4005</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>4007</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>4008</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>4009</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B100">
-        <v>4101</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B101">
-        <v>4102</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="B102">
-        <v>4103</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>4104</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>4201</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B105">
-        <v>4202</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="B106">
-        <v>4203</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>4204</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>5001</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>5002</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>5003</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>6102</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B112">
-        <v>6103</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B113">
-        <v>6104</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="B114">
-        <v>6201</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B115">
-        <v>6202</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B116">
-        <v>6203</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="B117">
-        <v>6204</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B118">
-        <v>6205</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="B119">
-        <v>6301</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B120">
-        <v>6302</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B121">
-        <v>6303</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B122">
-        <v>6305</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>6401</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B124">
-        <v>6402</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>6403</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>6404</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>6501</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>6502</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>6503</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>6504</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>6505</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="B132">
-        <v>6507</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B133">
-        <v>6508</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B134">
-        <v>6509</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B135">
-        <v>6510</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="B136">
-        <v>7001</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B137">
-        <v>7002</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="B138">
-        <v>8003</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B139">
-        <v>8004</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B140">
-        <v>8005</v>
+        <v>3405</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:B140">
-    <sortCondition ref="B2:B140"/>
+    <sortCondition ref="A2:A140"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2583,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2987,18 +2987,18 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B50">
-        <v>2533</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B51">
-        <v>2501</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -3070,6 +3070,9 @@
       <c r="B99" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:B99">
+    <sortCondition ref="A2:A99"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>